--- a/data/pca/factorExposure/factorExposure_2009-11-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.007347506243666356</v>
+        <v>0.01688064934607996</v>
       </c>
       <c r="C2">
-        <v>0.005938382353163248</v>
+        <v>-0.001039211409132927</v>
       </c>
       <c r="D2">
-        <v>0.006187205853530107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.007957512276014709</v>
+      </c>
+      <c r="E2">
+        <v>-0.001050697362143856</v>
+      </c>
+      <c r="F2">
+        <v>0.01193370596970849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.07527910403300278</v>
+        <v>0.09403154425500732</v>
       </c>
       <c r="C4">
-        <v>0.07620570339407498</v>
+        <v>-0.01497202587157087</v>
       </c>
       <c r="D4">
-        <v>0.04819671740511773</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08461944210599742</v>
+      </c>
+      <c r="E4">
+        <v>-0.02834878308534658</v>
+      </c>
+      <c r="F4">
+        <v>-0.03162570850822852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.09986317037520395</v>
+        <v>0.1577593487531688</v>
       </c>
       <c r="C6">
-        <v>0.09694074530586062</v>
+        <v>-0.02570935783994249</v>
       </c>
       <c r="D6">
-        <v>-0.03900198563512371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02105990849257534</v>
+      </c>
+      <c r="E6">
+        <v>-0.01231509283529325</v>
+      </c>
+      <c r="F6">
+        <v>-0.04441915375932382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.04156505560114317</v>
+        <v>0.0631233442344908</v>
       </c>
       <c r="C7">
-        <v>0.05771248943467536</v>
+        <v>0.001565374800985039</v>
       </c>
       <c r="D7">
-        <v>0.02733412164557531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05256333337126644</v>
+      </c>
+      <c r="E7">
+        <v>-0.00938692651967638</v>
+      </c>
+      <c r="F7">
+        <v>-0.0473702798559067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.02648273897727682</v>
+        <v>0.05707979485029498</v>
       </c>
       <c r="C8">
-        <v>0.05303619168704413</v>
+        <v>0.01348817427011294</v>
       </c>
       <c r="D8">
-        <v>-0.004609709318134322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0329884955323578</v>
+      </c>
+      <c r="E8">
+        <v>-0.0171482272626725</v>
+      </c>
+      <c r="F8">
+        <v>0.02777832554967517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06581493185359408</v>
+        <v>0.07138270558549707</v>
       </c>
       <c r="C9">
-        <v>0.06768131763175701</v>
+        <v>-0.01069552702617188</v>
       </c>
       <c r="D9">
-        <v>0.0436502455229756</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08615851745289843</v>
+      </c>
+      <c r="E9">
+        <v>-0.02249228955978933</v>
+      </c>
+      <c r="F9">
+        <v>-0.04713573064275837</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.03144846729035243</v>
+        <v>0.09450949854946067</v>
       </c>
       <c r="C10">
-        <v>0.02505760057927364</v>
+        <v>-0.02105675452400746</v>
       </c>
       <c r="D10">
-        <v>-0.1368493966736858</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1697880442607545</v>
+      </c>
+      <c r="E10">
+        <v>0.03514994604522989</v>
+      </c>
+      <c r="F10">
+        <v>0.05369181485762167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.07227797243712457</v>
+        <v>0.08771325701036506</v>
       </c>
       <c r="C11">
-        <v>0.07568273039922603</v>
+        <v>-0.01056808833069905</v>
       </c>
       <c r="D11">
-        <v>0.07582945037660234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1168792013272972</v>
+      </c>
+      <c r="E11">
+        <v>-0.04625460582809301</v>
+      </c>
+      <c r="F11">
+        <v>-0.02048537075193015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.07528375270917514</v>
+        <v>0.09219904655506904</v>
       </c>
       <c r="C12">
-        <v>0.08274810033816611</v>
+        <v>-0.007826676769266881</v>
       </c>
       <c r="D12">
-        <v>0.07841187590587222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.131828150793614</v>
+      </c>
+      <c r="E12">
+        <v>-0.04772293931330988</v>
+      </c>
+      <c r="F12">
+        <v>-0.02717826271872984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.02807627603448839</v>
+        <v>0.04205795837302803</v>
       </c>
       <c r="C13">
-        <v>0.03014772660127438</v>
+        <v>-0.002868359683355151</v>
       </c>
       <c r="D13">
-        <v>0.03012562141757882</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05308155050189513</v>
+      </c>
+      <c r="E13">
+        <v>0.007772727756641794</v>
+      </c>
+      <c r="F13">
+        <v>-0.002591204861081102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02467806217167785</v>
+        <v>0.02263870970162556</v>
       </c>
       <c r="C14">
-        <v>0.009626468231033821</v>
+        <v>-0.01352961408937434</v>
       </c>
       <c r="D14">
-        <v>0.01634124752976904</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03334081921622942</v>
+      </c>
+      <c r="E14">
+        <v>-0.01769410965093826</v>
+      </c>
+      <c r="F14">
+        <v>-0.01453480813776642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02741112937785561</v>
+        <v>0.03308225898334599</v>
       </c>
       <c r="C15">
-        <v>0.02599906122272089</v>
+        <v>-0.004786632554131594</v>
       </c>
       <c r="D15">
-        <v>0.01108594160079209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04493999405859414</v>
+      </c>
+      <c r="E15">
+        <v>-0.005698115258491047</v>
+      </c>
+      <c r="F15">
+        <v>-0.02290627484389321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.06039068961155966</v>
+        <v>0.07458499692546718</v>
       </c>
       <c r="C16">
-        <v>0.07518896266211131</v>
+        <v>-0.001420914280716769</v>
       </c>
       <c r="D16">
-        <v>0.07130219741157158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1263855772978459</v>
+      </c>
+      <c r="E16">
+        <v>-0.06208646700282843</v>
+      </c>
+      <c r="F16">
+        <v>-0.02350515081966953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03299115011822547</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003531734786470938</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01863622376808442</v>
+      </c>
+      <c r="E18">
+        <v>0.007725251404907911</v>
+      </c>
+      <c r="F18">
+        <v>0.006966605429704641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04099753996208552</v>
+        <v>0.06094510594608754</v>
       </c>
       <c r="C20">
-        <v>0.04743882981113094</v>
+        <v>-0.000199639537587992</v>
       </c>
       <c r="D20">
-        <v>0.02504011251287254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07728402119401434</v>
+      </c>
+      <c r="E20">
+        <v>-0.05526261598219009</v>
+      </c>
+      <c r="F20">
+        <v>-0.02313961147659083</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02877526440108632</v>
+        <v>0.04097185433406809</v>
       </c>
       <c r="C21">
-        <v>0.02209941027996721</v>
+        <v>-0.006633062980370853</v>
       </c>
       <c r="D21">
-        <v>0.007215715965177728</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03692310602223153</v>
+      </c>
+      <c r="E21">
+        <v>0.00530011147050807</v>
+      </c>
+      <c r="F21">
+        <v>0.0243593114638371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.01733733650694718</v>
+        <v>0.04310774640173642</v>
       </c>
       <c r="C22">
-        <v>0.02189076768602186</v>
+        <v>-0.0009059063516095979</v>
       </c>
       <c r="D22">
-        <v>-0.02347739839647222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.005449749331129787</v>
+      </c>
+      <c r="E22">
+        <v>-0.03238113706890553</v>
+      </c>
+      <c r="F22">
+        <v>0.04168097332774878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.01732143332344301</v>
+        <v>0.04310467433567571</v>
       </c>
       <c r="C23">
-        <v>0.02187301079552685</v>
+        <v>-0.0009038654352238757</v>
       </c>
       <c r="D23">
-        <v>-0.02352058446847522</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.005450145260892349</v>
+      </c>
+      <c r="E23">
+        <v>-0.03258301894874825</v>
+      </c>
+      <c r="F23">
+        <v>0.04164540697640511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.06499453493748439</v>
+        <v>0.08035694039414555</v>
       </c>
       <c r="C24">
-        <v>0.08102088662557225</v>
+        <v>-0.001869029969167424</v>
       </c>
       <c r="D24">
-        <v>0.07909981819359098</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1217859562549302</v>
+      </c>
+      <c r="E24">
+        <v>-0.04942925047532835</v>
+      </c>
+      <c r="F24">
+        <v>-0.02557810357785379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.06716709642523112</v>
+        <v>0.08487810980120586</v>
       </c>
       <c r="C25">
-        <v>0.07900802933761798</v>
+        <v>-0.004339501535902425</v>
       </c>
       <c r="D25">
-        <v>0.08190544810519879</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1095643050117037</v>
+      </c>
+      <c r="E25">
+        <v>-0.03233186690687886</v>
+      </c>
+      <c r="F25">
+        <v>-0.02610031886962137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04337270754862635</v>
+        <v>0.05784702931530598</v>
       </c>
       <c r="C26">
-        <v>0.03085512986194735</v>
+        <v>-0.01423410806513741</v>
       </c>
       <c r="D26">
-        <v>0.005977305194641439</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04019923343068769</v>
+      </c>
+      <c r="E26">
+        <v>-0.02768188593455567</v>
+      </c>
+      <c r="F26">
+        <v>0.007603753588336234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.0510920780693121</v>
+        <v>0.1403906077578872</v>
       </c>
       <c r="C28">
-        <v>0.06223415335484804</v>
+        <v>-0.02073419884596051</v>
       </c>
       <c r="D28">
-        <v>-0.2494428721808026</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2618463918245872</v>
+      </c>
+      <c r="E28">
+        <v>0.06706378283616952</v>
+      </c>
+      <c r="F28">
+        <v>-0.00909578089477746</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.0224717943692563</v>
+        <v>0.02725356455962371</v>
       </c>
       <c r="C29">
-        <v>0.01380797059467819</v>
+        <v>-0.00830281184823032</v>
       </c>
       <c r="D29">
-        <v>0.006947216356435124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03160820052439342</v>
+      </c>
+      <c r="E29">
+        <v>-0.01119869390231045</v>
+      </c>
+      <c r="F29">
+        <v>0.01149273344924101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.06553320446520249</v>
+        <v>0.06075475644214783</v>
       </c>
       <c r="C30">
-        <v>0.08270987427796417</v>
+        <v>-0.0033978172442185</v>
       </c>
       <c r="D30">
-        <v>0.04174992428887786</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08816534107867574</v>
+      </c>
+      <c r="E30">
+        <v>-0.01858127562825384</v>
+      </c>
+      <c r="F30">
+        <v>-0.08137713325227447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03240919991847892</v>
+        <v>0.05014973856439058</v>
       </c>
       <c r="C31">
-        <v>0.01625246221240489</v>
+        <v>-0.01513194284522512</v>
       </c>
       <c r="D31">
-        <v>0.01621668807387141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02503215245162714</v>
+      </c>
+      <c r="E31">
+        <v>-0.0277294207512508</v>
+      </c>
+      <c r="F31">
+        <v>0.002236080078824295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.03037331274552607</v>
+        <v>0.04979399970759767</v>
       </c>
       <c r="C32">
-        <v>0.041019452142916</v>
+        <v>0.001751047141195421</v>
       </c>
       <c r="D32">
-        <v>0.006142433283095662</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03685788055549068</v>
+      </c>
+      <c r="E32">
+        <v>-0.03165805819959213</v>
+      </c>
+      <c r="F32">
+        <v>-0.003239455660476673</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.0723710497719211</v>
+        <v>0.0899988287073538</v>
       </c>
       <c r="C33">
-        <v>0.08348177577092536</v>
+        <v>-0.007382773964823866</v>
       </c>
       <c r="D33">
-        <v>0.05156364375639791</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1000422017184156</v>
+      </c>
+      <c r="E33">
+        <v>-0.04409750571731734</v>
+      </c>
+      <c r="F33">
+        <v>-0.03552276388836979</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06591768233468046</v>
+        <v>0.06793368981498746</v>
       </c>
       <c r="C34">
-        <v>0.07067251135496436</v>
+        <v>-0.01028581478462183</v>
       </c>
       <c r="D34">
-        <v>0.07386375612327163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1082342776288886</v>
+      </c>
+      <c r="E34">
+        <v>-0.03469947590688677</v>
+      </c>
+      <c r="F34">
+        <v>-0.03211709607902669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01388286365921736</v>
+        <v>0.02451846917741006</v>
       </c>
       <c r="C35">
-        <v>0.01570566673785817</v>
+        <v>-0.002367516607776089</v>
       </c>
       <c r="D35">
-        <v>0.00397547798813938</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01155837466141123</v>
+      </c>
+      <c r="E35">
+        <v>-0.01160953229789909</v>
+      </c>
+      <c r="F35">
+        <v>-0.0001846595747551035</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01560599626361426</v>
+        <v>0.02783725782479265</v>
       </c>
       <c r="C36">
-        <v>0.004553885799296015</v>
+        <v>-0.006980615119123456</v>
       </c>
       <c r="D36">
-        <v>0.02791878742144175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03930178696338701</v>
+      </c>
+      <c r="E36">
+        <v>-0.01617892604325531</v>
+      </c>
+      <c r="F36">
+        <v>-0.01475169763873826</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0002780169745591615</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0001197009480394806</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.000235539269018062</v>
+      </c>
+      <c r="E37">
+        <v>0.0003824284741672604</v>
+      </c>
+      <c r="F37">
+        <v>-0.0006306318065481199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.001307381513956192</v>
+        <v>0.001062771954355161</v>
       </c>
       <c r="C38">
-        <v>0.001734574928767893</v>
+        <v>-0.0001734526595258199</v>
       </c>
       <c r="D38">
-        <v>-0.001650004987800156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0003952410228814381</v>
+      </c>
+      <c r="E38">
+        <v>-0.0001483092858053692</v>
+      </c>
+      <c r="F38">
+        <v>0.0008347223505491196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.09739583945066604</v>
+        <v>0.1053472594897917</v>
       </c>
       <c r="C39">
-        <v>0.103367588924456</v>
+        <v>-0.01579848713393235</v>
       </c>
       <c r="D39">
-        <v>0.1166701030329077</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1537357544509529</v>
+      </c>
+      <c r="E39">
+        <v>-0.05866808936158596</v>
+      </c>
+      <c r="F39">
+        <v>-0.02936961938265726</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02199136175959272</v>
+        <v>0.04250129612457031</v>
       </c>
       <c r="C40">
-        <v>0.01430213872463922</v>
+        <v>-0.006894769666765345</v>
       </c>
       <c r="D40">
-        <v>-0.01154547619691135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03149980092697708</v>
+      </c>
+      <c r="E40">
+        <v>-0.003420958827193613</v>
+      </c>
+      <c r="F40">
+        <v>0.01677675665871102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01823019930237174</v>
+        <v>0.02797514417711968</v>
       </c>
       <c r="C41">
-        <v>0.01146968279849461</v>
+        <v>-0.006908146708524726</v>
       </c>
       <c r="D41">
-        <v>-0.005784713790473469</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01000790264772575</v>
+      </c>
+      <c r="E41">
+        <v>-0.01234599993416736</v>
+      </c>
+      <c r="F41">
+        <v>0.006357049543285712</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02055821664766609</v>
+        <v>0.04061489164189217</v>
       </c>
       <c r="C43">
-        <v>0.01238252164969027</v>
+        <v>-0.006893131258682632</v>
       </c>
       <c r="D43">
-        <v>0.006459587424786485</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01924823153499866</v>
+      </c>
+      <c r="E43">
+        <v>-0.02432602907351661</v>
+      </c>
+      <c r="F43">
+        <v>0.01307851987257078</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.08162250284194571</v>
+        <v>0.07984010830279355</v>
       </c>
       <c r="C44">
-        <v>0.07438253487550441</v>
+        <v>-0.0197525021876065</v>
       </c>
       <c r="D44">
-        <v>0.04413623813875005</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09722027068895336</v>
+      </c>
+      <c r="E44">
+        <v>-0.06383423231731804</v>
+      </c>
+      <c r="F44">
+        <v>-0.1553300580881866</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.007016693472908691</v>
+        <v>0.02276653243280292</v>
       </c>
       <c r="C46">
-        <v>0.001515577380810185</v>
+        <v>-0.003444425442699591</v>
       </c>
       <c r="D46">
-        <v>-0.00220301024327122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01294551551561681</v>
+      </c>
+      <c r="E46">
+        <v>-0.02177661285414205</v>
+      </c>
+      <c r="F46">
+        <v>0.006974107458563679</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.02859619902676324</v>
+        <v>0.05164350445183959</v>
       </c>
       <c r="C47">
-        <v>0.03087257844890181</v>
+        <v>-0.003234225404597368</v>
       </c>
       <c r="D47">
-        <v>-0.02736406594369781</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01410195755042938</v>
+      </c>
+      <c r="E47">
+        <v>-0.02369195258587159</v>
+      </c>
+      <c r="F47">
+        <v>0.03231264284518108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03396455301962693</v>
+        <v>0.05013256614644631</v>
       </c>
       <c r="C48">
-        <v>0.04052894342510479</v>
+        <v>-0.002197762129428211</v>
       </c>
       <c r="D48">
-        <v>0.03138915112522137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05002219559460822</v>
+      </c>
+      <c r="E48">
+        <v>0.006273153013999368</v>
+      </c>
+      <c r="F48">
+        <v>-0.0101876640013231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1416690936762885</v>
+        <v>0.2007461835646532</v>
       </c>
       <c r="C49">
-        <v>0.1719727825443207</v>
+        <v>-0.01896248523628082</v>
       </c>
       <c r="D49">
-        <v>-0.0378553038845155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.006837182991531072</v>
+      </c>
+      <c r="E49">
+        <v>-0.03196677023309212</v>
+      </c>
+      <c r="F49">
+        <v>-0.03701470283945359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03309065871738104</v>
+        <v>0.05058364031925353</v>
       </c>
       <c r="C50">
-        <v>0.02365029095826658</v>
+        <v>-0.01103269742994495</v>
       </c>
       <c r="D50">
-        <v>0.007980255559034069</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0237974016076454</v>
+      </c>
+      <c r="E50">
+        <v>-0.02955201949319228</v>
+      </c>
+      <c r="F50">
+        <v>-0.009798811578459932</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0006374264402435562</v>
+        <v>0.0004677265646496359</v>
       </c>
       <c r="C51">
-        <v>0.0007795846959367559</v>
+        <v>-0.0001285564275008958</v>
       </c>
       <c r="D51">
-        <v>-0.001221069741068882</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0003235797347987755</v>
+      </c>
+      <c r="E51">
+        <v>-8.391979118906571e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.0009932685869459149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1065532640188008</v>
+        <v>0.1464324400191796</v>
       </c>
       <c r="C52">
-        <v>0.1301377299626491</v>
+        <v>-0.0161717119805845</v>
       </c>
       <c r="D52">
-        <v>0.03011908686800945</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04350475547208758</v>
+      </c>
+      <c r="E52">
+        <v>-0.01969403696680028</v>
+      </c>
+      <c r="F52">
+        <v>-0.04274602816150617</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.116224616169184</v>
+        <v>0.1716303370198766</v>
       </c>
       <c r="C53">
-        <v>0.1423968978970072</v>
+        <v>-0.01921614690007742</v>
       </c>
       <c r="D53">
-        <v>-0.002929426853703222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005888496609933315</v>
+      </c>
+      <c r="E53">
+        <v>-0.03126817713500617</v>
+      </c>
+      <c r="F53">
+        <v>-0.07339111996076927</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02835414846253751</v>
+        <v>0.0220584170547659</v>
       </c>
       <c r="C54">
-        <v>0.02098823998065069</v>
+        <v>-0.01209201360552834</v>
       </c>
       <c r="D54">
-        <v>0.006288120848300807</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03426698827320131</v>
+      </c>
+      <c r="E54">
+        <v>-0.01839740811056437</v>
+      </c>
+      <c r="F54">
+        <v>0.005142589400224523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.07475119702609449</v>
+        <v>0.1140557849542784</v>
       </c>
       <c r="C55">
-        <v>0.08412377757716318</v>
+        <v>-0.01674549839802639</v>
       </c>
       <c r="D55">
-        <v>-0.006877606067751821</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008535176151482908</v>
+      </c>
+      <c r="E55">
+        <v>-0.02753603937837739</v>
+      </c>
+      <c r="F55">
+        <v>-0.04767134724441071</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1124902910163067</v>
+        <v>0.1767201879670371</v>
       </c>
       <c r="C56">
-        <v>0.1407209522347536</v>
+        <v>-0.01688656723302677</v>
       </c>
       <c r="D56">
-        <v>-0.01612587842129154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0006548232413046112</v>
+      </c>
+      <c r="E56">
+        <v>-0.03470785589955432</v>
+      </c>
+      <c r="F56">
+        <v>-0.05240843508333455</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.03230217695405211</v>
+        <v>0.04618652866024055</v>
       </c>
       <c r="C58">
-        <v>0.03415334212820982</v>
+        <v>-0.0001553295878236575</v>
       </c>
       <c r="D58">
-        <v>0.03525312894173537</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.06802526913918147</v>
+      </c>
+      <c r="E58">
+        <v>-0.02716069504800377</v>
+      </c>
+      <c r="F58">
+        <v>0.035819195528899</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.07520655173778519</v>
+        <v>0.1681220372106572</v>
       </c>
       <c r="C59">
-        <v>0.09400361957365298</v>
+        <v>-0.02134395550328965</v>
       </c>
       <c r="D59">
-        <v>-0.2259286675720526</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2189071488491505</v>
+      </c>
+      <c r="E59">
+        <v>0.0460663518977979</v>
+      </c>
+      <c r="F59">
+        <v>0.03627426346369548</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.1491326754917331</v>
+        <v>0.2319259410305601</v>
       </c>
       <c r="C60">
-        <v>0.2174481352037646</v>
+        <v>0.002730967715097284</v>
       </c>
       <c r="D60">
-        <v>0.01646804492068679</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04208133915027073</v>
+      </c>
+      <c r="E60">
+        <v>-0.01127262060574528</v>
+      </c>
+      <c r="F60">
+        <v>0.004292756055642274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08206076368940106</v>
+        <v>0.0815173623682882</v>
       </c>
       <c r="C61">
-        <v>0.09185945882408476</v>
+        <v>-0.01164738365584857</v>
       </c>
       <c r="D61">
-        <v>0.0673691513735874</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1172895856525313</v>
+      </c>
+      <c r="E61">
+        <v>-0.03880470839390442</v>
+      </c>
+      <c r="F61">
+        <v>-0.01082953846031627</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1136297703060042</v>
+        <v>0.1696349841246127</v>
       </c>
       <c r="C62">
-        <v>0.1374948807079923</v>
+        <v>-0.02015621573730215</v>
       </c>
       <c r="D62">
-        <v>-0.0134785014207957</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.005832045575139111</v>
+      </c>
+      <c r="E62">
+        <v>-0.03399441441458787</v>
+      </c>
+      <c r="F62">
+        <v>-0.03377998554451928</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.03207201875492927</v>
+        <v>0.04602639894130253</v>
       </c>
       <c r="C63">
-        <v>0.03695795863403142</v>
+        <v>-0.001842057776501324</v>
       </c>
       <c r="D63">
-        <v>0.03530765829990317</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05861437262885603</v>
+      </c>
+      <c r="E63">
+        <v>-0.0217118331289411</v>
+      </c>
+      <c r="F63">
+        <v>-0.004273741672084906</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.06757915624419489</v>
+        <v>0.1099773676047547</v>
       </c>
       <c r="C64">
-        <v>0.0707232983797879</v>
+        <v>-0.01117849664293994</v>
       </c>
       <c r="D64">
-        <v>0.005144831662608713</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04339784660449644</v>
+      </c>
+      <c r="E64">
+        <v>-0.02450250723039468</v>
+      </c>
+      <c r="F64">
+        <v>-0.02560468646549064</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.09707123887468402</v>
+        <v>0.1476698764895929</v>
       </c>
       <c r="C65">
-        <v>0.08527923303127355</v>
+        <v>-0.03271332997485098</v>
       </c>
       <c r="D65">
-        <v>-0.03049434866887301</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03996278071661979</v>
+      </c>
+      <c r="E65">
+        <v>-0.005874454929118089</v>
+      </c>
+      <c r="F65">
+        <v>-0.03919367957013272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1168445169701963</v>
+        <v>0.124733000551063</v>
       </c>
       <c r="C66">
-        <v>0.1367726738009006</v>
+        <v>-0.01390306142285131</v>
       </c>
       <c r="D66">
-        <v>0.1046324324128883</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1420168507002439</v>
+      </c>
+      <c r="E66">
+        <v>-0.06538209891978493</v>
+      </c>
+      <c r="F66">
+        <v>-0.03244709054427342</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.04291421376039509</v>
+        <v>0.06017599521985172</v>
       </c>
       <c r="C67">
-        <v>0.05231866686873961</v>
+        <v>-0.003315606482739902</v>
       </c>
       <c r="D67">
-        <v>0.01921310009202041</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05515636295439303</v>
+      </c>
+      <c r="E67">
+        <v>-0.01713952972795981</v>
+      </c>
+      <c r="F67">
+        <v>0.03318826400792476</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.05228037874604775</v>
+        <v>0.1159581394255067</v>
       </c>
       <c r="C68">
-        <v>0.04617596293880147</v>
+        <v>-0.03160691487783093</v>
       </c>
       <c r="D68">
-        <v>-0.2341330880948136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2602235920719871</v>
+      </c>
+      <c r="E68">
+        <v>0.08596325417397319</v>
+      </c>
+      <c r="F68">
+        <v>-0.00589331940516723</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.02376381934836183</v>
+        <v>0.03997565706263832</v>
       </c>
       <c r="C69">
-        <v>0.03061634083002189</v>
+        <v>-0.001363905104842027</v>
       </c>
       <c r="D69">
-        <v>-0.01135258613723599</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007058881546396811</v>
+      </c>
+      <c r="E69">
+        <v>-0.02247363450198939</v>
+      </c>
+      <c r="F69">
+        <v>-0.0003477013810077857</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.002260725623805996</v>
+        <v>0.06599465737679201</v>
       </c>
       <c r="C70">
-        <v>0.02792498690776277</v>
+        <v>0.02781553501873139</v>
       </c>
       <c r="D70">
-        <v>-0.04403265432616957</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02476035132045805</v>
+      </c>
+      <c r="E70">
+        <v>0.03843856342154517</v>
+      </c>
+      <c r="F70">
+        <v>0.1831307302607322</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.06151974697250003</v>
+        <v>0.1359878403931478</v>
       </c>
       <c r="C71">
-        <v>0.05193354262566319</v>
+        <v>-0.0359920123817544</v>
       </c>
       <c r="D71">
-        <v>-0.2491896293548887</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2730856314359572</v>
+      </c>
+      <c r="E71">
+        <v>0.09605633228028169</v>
+      </c>
+      <c r="F71">
+        <v>-0.01116550198239734</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.09699359233118689</v>
+        <v>0.1417098676151014</v>
       </c>
       <c r="C72">
-        <v>0.09709410072100692</v>
+        <v>-0.0261548161278097</v>
       </c>
       <c r="D72">
-        <v>-0.02640450373607026</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0004394801700966446</v>
+      </c>
+      <c r="E72">
+        <v>-0.03871739691145527</v>
+      </c>
+      <c r="F72">
+        <v>-0.03310841537068193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1286935996441043</v>
+        <v>0.2015373440291565</v>
       </c>
       <c r="C73">
-        <v>0.163221223983822</v>
+        <v>-0.01229707297561034</v>
       </c>
       <c r="D73">
-        <v>-0.03555247076395322</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01752368985524536</v>
+      </c>
+      <c r="E73">
+        <v>-0.06413922365893629</v>
+      </c>
+      <c r="F73">
+        <v>-0.03556079933588244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.07047900646374412</v>
+        <v>0.09455498912194281</v>
       </c>
       <c r="C74">
-        <v>0.08319913062789573</v>
+        <v>-0.01323037716837015</v>
       </c>
       <c r="D74">
-        <v>-0.001030611816624549</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01704550064820065</v>
+      </c>
+      <c r="E74">
+        <v>-0.04351943942817507</v>
+      </c>
+      <c r="F74">
+        <v>-0.05811382920047245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1016335650163778</v>
+        <v>0.1277295346774544</v>
       </c>
       <c r="C75">
-        <v>0.09992624210940033</v>
+        <v>-0.02802912832235009</v>
       </c>
       <c r="D75">
-        <v>-0.003935993465718991</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03027024490905912</v>
+      </c>
+      <c r="E75">
+        <v>-0.05788263751579935</v>
+      </c>
+      <c r="F75">
+        <v>-0.0203467894098489</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0004742580038031297</v>
+        <v>0.0003250380941606361</v>
       </c>
       <c r="C76">
-        <v>0.0006014800835874769</v>
+        <v>-9.334148363430818e-05</v>
       </c>
       <c r="D76">
-        <v>-0.0006897747478559768</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0001674389183519193</v>
+      </c>
+      <c r="E76">
+        <v>-0.0001757794774293914</v>
+      </c>
+      <c r="F76">
+        <v>-6.081693465729084e-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06563679076500455</v>
+        <v>0.08749782463106806</v>
       </c>
       <c r="C77">
-        <v>0.06983620670732085</v>
+        <v>-0.008104998922544125</v>
       </c>
       <c r="D77">
-        <v>0.07059130576447548</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1134228486230996</v>
+      </c>
+      <c r="E77">
+        <v>-0.0391360530417154</v>
+      </c>
+      <c r="F77">
+        <v>-0.03039128686643989</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1169060835105878</v>
+        <v>0.1008324420234823</v>
       </c>
       <c r="C78">
-        <v>0.08523083150629715</v>
+        <v>-0.03964039838085995</v>
       </c>
       <c r="D78">
-        <v>0.01949339842968711</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1161091339423905</v>
+      </c>
+      <c r="E78">
+        <v>-0.07441061977844531</v>
+      </c>
+      <c r="F78">
+        <v>-0.0449596220685056</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1065186123523668</v>
+        <v>0.1642634063035172</v>
       </c>
       <c r="C79">
-        <v>0.1165692931400239</v>
+        <v>-0.02264862756617</v>
       </c>
       <c r="D79">
-        <v>-0.01573713403127996</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01396994663329678</v>
+      </c>
+      <c r="E79">
+        <v>-0.04555537463686395</v>
+      </c>
+      <c r="F79">
+        <v>-0.01132500648305927</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.05016484564240397</v>
+        <v>0.08315493943673614</v>
       </c>
       <c r="C80">
-        <v>0.06720966938789974</v>
+        <v>0.0009405937289076606</v>
       </c>
       <c r="D80">
-        <v>0.02865884192210705</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05634710753895307</v>
+      </c>
+      <c r="E80">
+        <v>-0.03676143838625592</v>
+      </c>
+      <c r="F80">
+        <v>0.02243989499144563</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.0979641615048191</v>
+        <v>0.1208203433598518</v>
       </c>
       <c r="C81">
-        <v>0.08856573140715877</v>
+        <v>-0.03198388694673159</v>
       </c>
       <c r="D81">
-        <v>0.005698360733108195</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01455866435154089</v>
+      </c>
+      <c r="E81">
+        <v>-0.0560721264568735</v>
+      </c>
+      <c r="F81">
+        <v>-0.018163827980357</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1131153781403947</v>
+        <v>0.1657477750927185</v>
       </c>
       <c r="C82">
-        <v>0.1260409057962188</v>
+        <v>-0.02434640992259525</v>
       </c>
       <c r="D82">
-        <v>-0.002961779854445115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003913012857130916</v>
+      </c>
+      <c r="E82">
+        <v>-0.02800023120083413</v>
+      </c>
+      <c r="F82">
+        <v>-0.08220149820860864</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.04758805357488742</v>
+        <v>0.05975294401995174</v>
       </c>
       <c r="C83">
-        <v>0.05656829713678659</v>
+        <v>-0.002826519866740684</v>
       </c>
       <c r="D83">
-        <v>0.02180892544389728</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05089373170688182</v>
+      </c>
+      <c r="E83">
+        <v>-0.004736031924542473</v>
+      </c>
+      <c r="F83">
+        <v>0.03019206959415474</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05545743933065211</v>
+        <v>0.05877687352602148</v>
       </c>
       <c r="C84">
-        <v>0.05361132580178415</v>
+        <v>-0.01121673911490113</v>
       </c>
       <c r="D84">
-        <v>0.04200835336039071</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06348493001022001</v>
+      </c>
+      <c r="E84">
+        <v>-0.006324124823963532</v>
+      </c>
+      <c r="F84">
+        <v>-0.004043247123321728</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.09996004789411868</v>
+        <v>0.1366294490921137</v>
       </c>
       <c r="C85">
-        <v>0.09902992692417736</v>
+        <v>-0.02795719187506401</v>
       </c>
       <c r="D85">
-        <v>-0.008741938601516622</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009501609087146113</v>
+      </c>
+      <c r="E85">
+        <v>-0.03757290038084773</v>
+      </c>
+      <c r="F85">
+        <v>-0.04658503941361664</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.04710567587153831</v>
+        <v>0.09539832218631834</v>
       </c>
       <c r="C86">
-        <v>0.06114546087582827</v>
+        <v>0.005408349768154946</v>
       </c>
       <c r="D86">
-        <v>-0.09942722126714471</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04005576904706272</v>
+      </c>
+      <c r="E86">
+        <v>-0.2156573168389828</v>
+      </c>
+      <c r="F86">
+        <v>0.9087467117526115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1000070353207778</v>
+        <v>0.09682446466181435</v>
       </c>
       <c r="C87">
-        <v>0.09752015261467974</v>
+        <v>-0.02009022398134972</v>
       </c>
       <c r="D87">
-        <v>0.04544169214845065</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0940149132654259</v>
+      </c>
+      <c r="E87">
+        <v>0.05220196847895807</v>
+      </c>
+      <c r="F87">
+        <v>-0.04981713320087371</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.03744702650783822</v>
+        <v>0.06079712773780079</v>
       </c>
       <c r="C88">
-        <v>0.04229723200370732</v>
+        <v>-0.00222599822707391</v>
       </c>
       <c r="D88">
-        <v>0.01353570793638123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04926317951017385</v>
+      </c>
+      <c r="E88">
+        <v>-0.0242267193057705</v>
+      </c>
+      <c r="F88">
+        <v>-0.0132917919656825</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.0509020321924102</v>
+        <v>0.1333156338705496</v>
       </c>
       <c r="C89">
-        <v>0.07625814597812534</v>
+        <v>-0.0131422129907916</v>
       </c>
       <c r="D89">
-        <v>-0.2635859472855004</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2496468998361795</v>
+      </c>
+      <c r="E89">
+        <v>0.0904302010422989</v>
+      </c>
+      <c r="F89">
+        <v>0.008077428366752086</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.0620135228079567</v>
+        <v>0.1506228035722691</v>
       </c>
       <c r="C90">
-        <v>0.05633971192572069</v>
+        <v>-0.03241000341835525</v>
       </c>
       <c r="D90">
-        <v>-0.2472499777123669</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2700744378562855</v>
+      </c>
+      <c r="E90">
+        <v>0.1121605168637316</v>
+      </c>
+      <c r="F90">
+        <v>0.00366086143379964</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07889459087223658</v>
+        <v>0.1205310936959328</v>
       </c>
       <c r="C91">
-        <v>0.08824390146163023</v>
+        <v>-0.01917233359462813</v>
       </c>
       <c r="D91">
-        <v>-0.03160899361739315</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01389968925477289</v>
+      </c>
+      <c r="E91">
+        <v>-0.05591293808747784</v>
+      </c>
+      <c r="F91">
+        <v>0.0009575633425549567</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.05217521472210718</v>
+        <v>0.1476688601282763</v>
       </c>
       <c r="C92">
-        <v>0.0683007426292724</v>
+        <v>-0.02382809180628164</v>
       </c>
       <c r="D92">
-        <v>-0.2594442894221782</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2925563499045781</v>
+      </c>
+      <c r="E92">
+        <v>0.1012830484793004</v>
+      </c>
+      <c r="F92">
+        <v>0.01329305009492479</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.06669503891694235</v>
+        <v>0.1518916349486547</v>
       </c>
       <c r="C93">
-        <v>0.07167609293215992</v>
+        <v>-0.02808382076057326</v>
       </c>
       <c r="D93">
-        <v>-0.2633822492704345</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2691855324441544</v>
+      </c>
+      <c r="E93">
+        <v>0.07767332342958404</v>
+      </c>
+      <c r="F93">
+        <v>-0.003102894453731539</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1046796642124446</v>
+        <v>0.1299329859303573</v>
       </c>
       <c r="C94">
-        <v>0.1111081983699023</v>
+        <v>-0.02477774751471556</v>
       </c>
       <c r="D94">
-        <v>0.01198897814012128</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04254393560042657</v>
+      </c>
+      <c r="E94">
+        <v>-0.05711708274568324</v>
+      </c>
+      <c r="F94">
+        <v>-0.037311124881399</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.08208552062533088</v>
+        <v>0.1271843689573642</v>
       </c>
       <c r="C95">
-        <v>0.09996256025021595</v>
+        <v>-0.003471838804402261</v>
       </c>
       <c r="D95">
-        <v>0.04590963820028927</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09249763137611419</v>
+      </c>
+      <c r="E95">
+        <v>-0.04694197182988358</v>
+      </c>
+      <c r="F95">
+        <v>0.008885322931078311</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.7539017975797557</v>
+        <v>0.1070205363972509</v>
       </c>
       <c r="C96">
-        <v>0.6503231368351402</v>
+        <v>0.9874256147268413</v>
       </c>
       <c r="D96">
-        <v>-0.02100178958652218</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04806081490294612</v>
+      </c>
+      <c r="E96">
+        <v>-0.05519876238736458</v>
+      </c>
+      <c r="F96">
+        <v>-0.04171133793029792</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.09174892254074554</v>
+        <v>0.1929086627729148</v>
       </c>
       <c r="C97">
-        <v>0.1430380650447488</v>
+        <v>0.007308905351473831</v>
       </c>
       <c r="D97">
-        <v>-0.07720626462737118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01736344176997553</v>
+      </c>
+      <c r="E97">
+        <v>-0.01831371087319845</v>
+      </c>
+      <c r="F97">
+        <v>0.08594208605466232</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1133028163539745</v>
+        <v>0.2042972439105727</v>
       </c>
       <c r="C98">
-        <v>0.15124626453409</v>
+        <v>-0.006872550572939067</v>
       </c>
       <c r="D98">
-        <v>0.0007921261657933682</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01388389591728401</v>
+      </c>
+      <c r="E98">
+        <v>0.08415516381942197</v>
+      </c>
+      <c r="F98">
+        <v>0.09022660059948255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.03063182127117058</v>
+        <v>0.05525869313674298</v>
       </c>
       <c r="C99">
-        <v>0.04853926595967354</v>
+        <v>0.004674987685126489</v>
       </c>
       <c r="D99">
-        <v>0.008717970503130199</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03936864591241401</v>
+      </c>
+      <c r="E99">
+        <v>-0.02257484845988502</v>
+      </c>
+      <c r="F99">
+        <v>-0.001379671812140452</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.05512210496658353</v>
+        <v>0.1257848831139775</v>
       </c>
       <c r="C100">
-        <v>0.1230695627984358</v>
+        <v>0.05422866401597703</v>
       </c>
       <c r="D100">
-        <v>0.5986795340157448</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3430951248368224</v>
+      </c>
+      <c r="E100">
+        <v>0.8889979342838948</v>
+      </c>
+      <c r="F100">
+        <v>0.1449237057450784</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02222600827812033</v>
+        <v>0.02721034211844169</v>
       </c>
       <c r="C101">
-        <v>0.0134848636992292</v>
+        <v>-0.008327590602318946</v>
       </c>
       <c r="D101">
-        <v>0.006102769456219012</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03121124446680974</v>
+      </c>
+      <c r="E101">
+        <v>-0.01056342441315257</v>
+      </c>
+      <c r="F101">
+        <v>0.01266788642726423</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
